--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64318A70-3A94-442B-9398-03958C87C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DA1D0-D59A-425A-AB66-2802C74E12D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Programa</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>BARCO ESPITIA SEBASTIAN</t>
   </si>
   <si>
@@ -275,12 +272,36 @@
   </si>
   <si>
     <t>Semana 16</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>piedad_calan@hotmail.com</t>
+  </si>
+  <si>
+    <t>ORTIZ CALAN FELIPE</t>
+  </si>
+  <si>
+    <t>alberto97011@gmail.com</t>
+  </si>
+  <si>
+    <t>TUNUBALA DAGUA JESUS ALBERTO</t>
+  </si>
+  <si>
+    <t>santiagomotog6513@gmail.com</t>
+  </si>
+  <si>
+    <t>VELASQUEZ BEDOYA SANTIAGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -744,11 +765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -830,52 +851,52 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -886,13 +907,13 @@
         <v>202380599</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -901,7 +922,7 @@
         <v>3743</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -912,13 +933,13 @@
         <v>202380407</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -926,7 +947,9 @@
       <c r="K6" s="5">
         <v>3743</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -936,13 +959,13 @@
         <v>202379918</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -951,7 +974,7 @@
         <v>3743</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -962,13 +985,13 @@
         <v>202380616</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -976,7 +999,9 @@
       <c r="K8" s="5">
         <v>3743</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -986,13 +1011,13 @@
         <v>202359573</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1000,7 +1025,9 @@
       <c r="K9" s="5">
         <v>3743</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1010,13 +1037,13 @@
         <v>202380664</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1025,7 +1052,7 @@
         <v>3743</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -1036,13 +1063,13 @@
         <v>202380818</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1051,7 +1078,7 @@
         <v>3743</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -1062,13 +1089,13 @@
         <v>202380413</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1077,7 +1104,7 @@
         <v>3743</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -1088,13 +1115,13 @@
         <v>202380530</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1103,7 +1130,7 @@
         <v>3743</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -1114,13 +1141,13 @@
         <v>202380633</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1129,7 +1156,7 @@
         <v>3743</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1140,13 +1167,13 @@
         <v>202380581</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1154,7 +1181,9 @@
       <c r="K15" s="5">
         <v>3743</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1164,13 +1193,13 @@
         <v>202380661</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1179,7 +1208,7 @@
         <v>3743</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,13 +1219,13 @@
         <v>202359678</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1205,7 +1234,7 @@
         <v>3743</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1216,13 +1245,13 @@
         <v>202380667</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1231,7 +1260,7 @@
         <v>3743</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1242,13 +1271,13 @@
         <v>202380547</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1257,7 +1286,7 @@
         <v>3743</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1268,13 +1297,13 @@
         <v>202380311</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1283,7 +1312,7 @@
         <v>3743</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1294,13 +1323,13 @@
         <v>202380397</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1309,7 +1338,7 @@
         <v>3743</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1320,13 +1349,13 @@
         <v>202380403</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1335,7 +1364,7 @@
         <v>3743</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1346,13 +1375,13 @@
         <v>202380367</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1361,7 +1390,7 @@
         <v>3743</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1372,13 +1401,13 @@
         <v>202380608</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1387,7 +1416,7 @@
         <v>3743</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1398,13 +1427,13 @@
         <v>202380583</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1412,7 +1441,9 @@
       <c r="K25" s="5">
         <v>3743</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1422,13 +1453,13 @@
         <v>202359589</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1436,7 +1467,9 @@
       <c r="K26" s="5">
         <v>3743</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1446,13 +1479,13 @@
         <v>202380379</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1461,7 +1494,7 @@
         <v>3743</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1472,13 +1505,13 @@
         <v>202380798</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1487,7 +1520,7 @@
         <v>3743</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1498,13 +1531,13 @@
         <v>202380647</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1513,7 +1546,7 @@
         <v>3743</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1524,13 +1557,13 @@
         <v>202359418</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1538,7 +1571,9 @@
       <c r="K30" s="5">
         <v>3743</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1548,13 +1583,13 @@
         <v>202380549</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1563,7 +1598,7 @@
         <v>3743</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1574,13 +1609,13 @@
         <v>202359719</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1588,7 +1623,9 @@
       <c r="K32" s="5">
         <v>3743</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1598,13 +1635,13 @@
         <v>202380728</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1613,7 +1650,7 @@
         <v>3743</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1624,13 +1661,13 @@
         <v>202380372</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1639,7 +1676,85 @@
         <v>3743</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>202380642</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>3743</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>202379924</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>3743</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>202380378</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
+        <v>3743</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DA1D0-D59A-425A-AB66-2802C74E12D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD411D-37E1-4B67-AAB5-55EEDDF93E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -290,12 +290,6 @@
   </si>
   <si>
     <t>TUNUBALA DAGUA JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>santiagomotog6513@gmail.com</t>
-  </si>
-  <si>
-    <t>VELASQUEZ BEDOYA SANTIAGO</t>
   </si>
 </sst>
 </file>
@@ -766,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,6 +918,9 @@
       <c r="L5" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -950,6 +947,9 @@
       <c r="L6" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -976,6 +976,9 @@
       <c r="L7" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1002,6 +1005,9 @@
       <c r="L8" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1028,6 +1034,9 @@
       <c r="L9" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1054,6 +1063,9 @@
       <c r="L10" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1080,6 +1092,9 @@
       <c r="L11" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1106,6 +1121,9 @@
       <c r="L12" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1132,6 +1150,9 @@
       <c r="L13" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1158,6 +1179,9 @@
       <c r="L14" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1184,6 +1208,9 @@
       <c r="L15" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1210,8 +1237,11 @@
       <c r="L16" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1236,8 +1266,11 @@
       <c r="L17" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1262,8 +1295,11 @@
       <c r="L18" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1288,8 +1324,11 @@
       <c r="L19" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1314,8 +1353,11 @@
       <c r="L20" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1340,8 +1382,11 @@
       <c r="L21" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1366,8 +1411,11 @@
       <c r="L22" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1392,8 +1440,11 @@
       <c r="L23" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1418,8 +1469,11 @@
       <c r="L24" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1444,8 +1498,11 @@
       <c r="L25" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1470,8 +1527,11 @@
       <c r="L26" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1496,8 +1556,11 @@
       <c r="L27" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1522,8 +1585,11 @@
       <c r="L28" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1548,8 +1614,11 @@
       <c r="L29" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1574,8 +1643,11 @@
       <c r="L30" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1600,8 +1672,11 @@
       <c r="L31" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1626,8 +1701,11 @@
       <c r="L32" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1652,8 +1730,11 @@
       <c r="L33" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1678,8 +1759,11 @@
       <c r="L34" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1704,8 +1788,11 @@
       <c r="L35" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1730,30 +1817,7 @@
       <c r="L36" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>202380378</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>3743</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="M36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD411D-37E1-4B67-AAB5-55EEDDF93E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C9917-FC91-4ADD-A82E-BCBAF0A25545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -921,6 +921,9 @@
       <c r="M5" t="s">
         <v>85</v>
       </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -950,6 +953,9 @@
       <c r="M6" t="s">
         <v>85</v>
       </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -979,6 +985,9 @@
       <c r="M7" t="s">
         <v>84</v>
       </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1008,6 +1017,9 @@
       <c r="M8" t="s">
         <v>84</v>
       </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1037,6 +1049,9 @@
       <c r="M9" t="s">
         <v>85</v>
       </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1066,6 +1081,9 @@
       <c r="M10" t="s">
         <v>84</v>
       </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1095,6 +1113,9 @@
       <c r="M11" t="s">
         <v>84</v>
       </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1124,6 +1145,9 @@
       <c r="M12" t="s">
         <v>84</v>
       </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1153,6 +1177,9 @@
       <c r="M13" t="s">
         <v>84</v>
       </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1182,6 +1209,9 @@
       <c r="M14" t="s">
         <v>84</v>
       </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1211,6 +1241,9 @@
       <c r="M15" t="s">
         <v>85</v>
       </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1240,8 +1273,11 @@
       <c r="M16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1269,8 +1305,11 @@
       <c r="M17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1298,8 +1337,11 @@
       <c r="M18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1327,8 +1369,11 @@
       <c r="M19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1356,8 +1401,11 @@
       <c r="M20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1385,8 +1433,11 @@
       <c r="M21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1414,8 +1465,11 @@
       <c r="M22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1443,8 +1497,11 @@
       <c r="M23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1472,8 +1529,11 @@
       <c r="M24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1501,8 +1561,11 @@
       <c r="M25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1530,8 +1593,11 @@
       <c r="M26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1559,8 +1625,11 @@
       <c r="M27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1588,8 +1657,11 @@
       <c r="M28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1617,8 +1689,11 @@
       <c r="M29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1646,8 +1721,11 @@
       <c r="M30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1675,8 +1753,11 @@
       <c r="M31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1704,8 +1785,11 @@
       <c r="M32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1733,8 +1817,11 @@
       <c r="M33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1762,8 +1849,11 @@
       <c r="M34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1791,8 +1881,11 @@
       <c r="M35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1818,6 +1911,9 @@
         <v>84</v>
       </c>
       <c r="M36" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C9917-FC91-4ADD-A82E-BCBAF0A25545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5D98D-8276-4869-97EE-163F23071A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -762,8 +762,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
+      <pane xSplit="6" ySplit="11" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,6 +928,9 @@
       <c r="N5" t="s">
         <v>84</v>
       </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -956,6 +963,9 @@
       <c r="N6" t="s">
         <v>85</v>
       </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -988,6 +998,9 @@
       <c r="N7" t="s">
         <v>84</v>
       </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1020,6 +1033,9 @@
       <c r="N8" t="s">
         <v>84</v>
       </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1052,6 +1068,9 @@
       <c r="N9" t="s">
         <v>85</v>
       </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1084,6 +1103,9 @@
       <c r="N10" t="s">
         <v>84</v>
       </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1116,6 +1138,9 @@
       <c r="N11" t="s">
         <v>84</v>
       </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1148,6 +1173,9 @@
       <c r="N12" t="s">
         <v>85</v>
       </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1180,6 +1208,9 @@
       <c r="N13" t="s">
         <v>84</v>
       </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1212,6 +1243,9 @@
       <c r="N14" t="s">
         <v>84</v>
       </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1244,6 +1278,9 @@
       <c r="N15" t="s">
         <v>85</v>
       </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1276,8 +1313,11 @@
       <c r="N16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1308,8 +1348,11 @@
       <c r="N17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1340,8 +1383,11 @@
       <c r="N18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1372,8 +1418,11 @@
       <c r="N19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1404,8 +1453,11 @@
       <c r="N20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1436,8 +1488,11 @@
       <c r="N21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="N22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1500,8 +1558,11 @@
       <c r="N23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1532,8 +1593,11 @@
       <c r="N24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1564,8 +1628,11 @@
       <c r="N25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1596,8 +1663,11 @@
       <c r="N26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1628,8 +1698,11 @@
       <c r="N27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1660,8 +1733,11 @@
       <c r="N28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1692,8 +1768,11 @@
       <c r="N29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1724,8 +1803,11 @@
       <c r="N30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1756,8 +1838,11 @@
       <c r="N31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1788,8 +1873,11 @@
       <c r="N32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1820,8 +1908,11 @@
       <c r="N33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1852,8 +1943,11 @@
       <c r="N34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1884,8 +1978,11 @@
       <c r="N35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1914,6 +2011,9 @@
         <v>84</v>
       </c>
       <c r="N36" t="s">
+        <v>84</v>
+      </c>
+      <c r="O36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5D98D-8276-4869-97EE-163F23071A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAECA39C-AAF2-4FDE-892B-9F47D03FB6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,6 +931,9 @@
       <c r="O5" t="s">
         <v>84</v>
       </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -966,6 +969,9 @@
       <c r="O6" t="s">
         <v>85</v>
       </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1001,6 +1007,9 @@
       <c r="O7" t="s">
         <v>84</v>
       </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1036,6 +1045,9 @@
       <c r="O8" t="s">
         <v>84</v>
       </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1071,6 +1083,9 @@
       <c r="O9" t="s">
         <v>85</v>
       </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1106,6 +1121,9 @@
       <c r="O10" t="s">
         <v>84</v>
       </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1141,6 +1159,9 @@
       <c r="O11" t="s">
         <v>84</v>
       </c>
+      <c r="P11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1176,6 +1197,9 @@
       <c r="O12" t="s">
         <v>85</v>
       </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1211,6 +1235,9 @@
       <c r="O13" t="s">
         <v>84</v>
       </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1246,6 +1273,9 @@
       <c r="O14" t="s">
         <v>84</v>
       </c>
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1281,6 +1311,9 @@
       <c r="O15" t="s">
         <v>85</v>
       </c>
+      <c r="P15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1316,8 +1349,11 @@
       <c r="O16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1351,8 +1387,11 @@
       <c r="O17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1386,8 +1425,11 @@
       <c r="O18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1421,8 +1463,11 @@
       <c r="O19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1456,8 +1501,11 @@
       <c r="O20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1491,8 +1539,11 @@
       <c r="O21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1526,8 +1577,11 @@
       <c r="O22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1561,8 +1615,11 @@
       <c r="O23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1596,8 +1653,11 @@
       <c r="O24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1631,8 +1691,11 @@
       <c r="O25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1666,8 +1729,11 @@
       <c r="O26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1701,8 +1767,11 @@
       <c r="O27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1736,8 +1805,11 @@
       <c r="O28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1771,8 +1843,11 @@
       <c r="O29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1806,8 +1881,11 @@
       <c r="O30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1841,8 +1919,11 @@
       <c r="O31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1876,8 +1957,11 @@
       <c r="O32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1911,8 +1995,11 @@
       <c r="O33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1946,8 +2033,11 @@
       <c r="O34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1981,8 +2071,11 @@
       <c r="O35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2014,6 +2107,9 @@
         <v>84</v>
       </c>
       <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAECA39C-AAF2-4FDE-892B-9F47D03FB6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC7D4A-3001-4A5A-B977-807723537F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1920,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC7D4A-3001-4A5A-B977-807723537F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E504591F-6C95-49A8-8DBB-C62DEBA8B8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,6 +934,9 @@
       <c r="P5" t="s">
         <v>84</v>
       </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -972,6 +975,9 @@
       <c r="P6" t="s">
         <v>85</v>
       </c>
+      <c r="Q6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1010,6 +1016,9 @@
       <c r="P7" t="s">
         <v>84</v>
       </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1048,6 +1057,9 @@
       <c r="P8" t="s">
         <v>84</v>
       </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1086,6 +1098,9 @@
       <c r="P9" t="s">
         <v>85</v>
       </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1124,6 +1139,9 @@
       <c r="P10" t="s">
         <v>84</v>
       </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1162,6 +1180,9 @@
       <c r="P11" t="s">
         <v>84</v>
       </c>
+      <c r="Q11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1200,6 +1221,9 @@
       <c r="P12" t="s">
         <v>85</v>
       </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1238,6 +1262,9 @@
       <c r="P13" t="s">
         <v>84</v>
       </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1276,6 +1303,9 @@
       <c r="P14" t="s">
         <v>84</v>
       </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1314,6 +1344,9 @@
       <c r="P15" t="s">
         <v>85</v>
       </c>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1352,8 +1385,11 @@
       <c r="P16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1390,8 +1426,11 @@
       <c r="P17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1428,8 +1467,11 @@
       <c r="P18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1466,8 +1508,11 @@
       <c r="P19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1504,8 +1549,11 @@
       <c r="P20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1542,8 +1590,11 @@
       <c r="P21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1580,8 +1631,11 @@
       <c r="P22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1618,8 +1672,11 @@
       <c r="P23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1656,8 +1713,11 @@
       <c r="P24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1694,8 +1754,11 @@
       <c r="P25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1732,8 +1795,11 @@
       <c r="P26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1770,8 +1836,11 @@
       <c r="P27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1808,8 +1877,11 @@
       <c r="P28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1846,8 +1918,11 @@
       <c r="P29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1884,8 +1959,11 @@
       <c r="P30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1922,8 +2000,11 @@
       <c r="P31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1960,8 +2041,11 @@
       <c r="P32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1998,8 +2082,11 @@
       <c r="P33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2036,8 +2123,11 @@
       <c r="P34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2074,8 +2164,11 @@
       <c r="P35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2110,6 +2203,9 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E504591F-6C95-49A8-8DBB-C62DEBA8B8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E756E6-8E18-4965-A738-E1B4115A73E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,6 +937,12 @@
       <c r="Q5" t="s">
         <v>84</v>
       </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -978,6 +984,12 @@
       <c r="Q6" t="s">
         <v>85</v>
       </c>
+      <c r="R6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1019,6 +1031,12 @@
       <c r="Q7" t="s">
         <v>84</v>
       </c>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1060,6 +1078,12 @@
       <c r="Q8" t="s">
         <v>84</v>
       </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1101,6 +1125,12 @@
       <c r="Q9" t="s">
         <v>85</v>
       </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1142,6 +1172,12 @@
       <c r="Q10" t="s">
         <v>84</v>
       </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1183,6 +1219,12 @@
       <c r="Q11" t="s">
         <v>84</v>
       </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1224,6 +1266,12 @@
       <c r="Q12" t="s">
         <v>85</v>
       </c>
+      <c r="R12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1265,6 +1313,12 @@
       <c r="Q13" t="s">
         <v>84</v>
       </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1306,6 +1360,12 @@
       <c r="Q14" t="s">
         <v>84</v>
       </c>
+      <c r="R14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1347,6 +1407,12 @@
       <c r="Q15" t="s">
         <v>85</v>
       </c>
+      <c r="R15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1388,8 +1454,14 @@
       <c r="Q16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1429,8 +1501,14 @@
       <c r="Q17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1470,8 +1548,14 @@
       <c r="Q18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1511,8 +1595,14 @@
       <c r="Q19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1552,8 +1642,14 @@
       <c r="Q20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1593,8 +1689,14 @@
       <c r="Q21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1634,8 +1736,14 @@
       <c r="Q22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1675,8 +1783,14 @@
       <c r="Q23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1716,8 +1830,14 @@
       <c r="Q24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1757,8 +1877,14 @@
       <c r="Q25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1798,8 +1924,14 @@
       <c r="Q26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1839,8 +1971,14 @@
       <c r="Q27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1880,8 +2018,14 @@
       <c r="Q28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1921,8 +2065,14 @@
       <c r="Q29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1962,8 +2112,14 @@
       <c r="Q30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2003,8 +2159,14 @@
       <c r="Q31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2044,8 +2206,14 @@
       <c r="Q32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2085,8 +2253,14 @@
       <c r="Q33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2126,8 +2300,14 @@
       <c r="Q34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2167,8 +2347,14 @@
       <c r="Q35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2206,6 +2392,12 @@
         <v>84</v>
       </c>
       <c r="Q36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E756E6-8E18-4965-A738-E1B4115A73E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020DDADE-D6EA-46F8-89F1-5389D7FAB2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,6 +943,12 @@
       <c r="S5" t="s">
         <v>84</v>
       </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -990,6 +996,12 @@
       <c r="S6" t="s">
         <v>85</v>
       </c>
+      <c r="T6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1037,6 +1049,12 @@
       <c r="S7" t="s">
         <v>84</v>
       </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1084,6 +1102,12 @@
       <c r="S8" t="s">
         <v>84</v>
       </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1131,6 +1155,12 @@
       <c r="S9" t="s">
         <v>85</v>
       </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1178,6 +1208,12 @@
       <c r="S10" t="s">
         <v>84</v>
       </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1225,6 +1261,12 @@
       <c r="S11" t="s">
         <v>84</v>
       </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1272,6 +1314,12 @@
       <c r="S12" t="s">
         <v>85</v>
       </c>
+      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1319,6 +1367,12 @@
       <c r="S13" t="s">
         <v>84</v>
       </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1366,6 +1420,12 @@
       <c r="S14" t="s">
         <v>84</v>
       </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1413,6 +1473,12 @@
       <c r="S15" t="s">
         <v>85</v>
       </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1460,8 +1526,14 @@
       <c r="S16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1507,8 +1579,14 @@
       <c r="S17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1554,8 +1632,14 @@
       <c r="S18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1601,8 +1685,14 @@
       <c r="S19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1648,8 +1738,14 @@
       <c r="S20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1695,8 +1791,14 @@
       <c r="S21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1742,8 +1844,14 @@
       <c r="S22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1789,8 +1897,14 @@
       <c r="S23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1836,8 +1950,14 @@
       <c r="S24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>84</v>
+      </c>
+      <c r="U24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1883,8 +2003,14 @@
       <c r="S25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+      <c r="U25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1930,8 +2056,14 @@
       <c r="S26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1977,8 +2109,14 @@
       <c r="S27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2024,8 +2162,14 @@
       <c r="S28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2071,8 +2215,14 @@
       <c r="S29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" t="s">
+        <v>84</v>
+      </c>
+      <c r="U29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2118,8 +2268,14 @@
       <c r="S30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2165,8 +2321,14 @@
       <c r="S31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2212,8 +2374,14 @@
       <c r="S32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2259,8 +2427,14 @@
       <c r="S33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2306,8 +2480,14 @@
       <c r="S34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2353,8 +2533,14 @@
       <c r="S35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" t="s">
+        <v>84</v>
+      </c>
+      <c r="U35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2398,6 +2584,12 @@
         <v>84</v>
       </c>
       <c r="S36" t="s">
+        <v>84</v>
+      </c>
+      <c r="T36" t="s">
+        <v>84</v>
+      </c>
+      <c r="U36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020DDADE-D6EA-46F8-89F1-5389D7FAB2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD85224-8B92-40E1-B9E6-636A63826BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -949,6 +949,9 @@
       <c r="U5" t="s">
         <v>84</v>
       </c>
+      <c r="V5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1002,6 +1005,9 @@
       <c r="U6" t="s">
         <v>85</v>
       </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1055,6 +1061,9 @@
       <c r="U7" t="s">
         <v>84</v>
       </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1108,6 +1117,9 @@
       <c r="U8" t="s">
         <v>84</v>
       </c>
+      <c r="V8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1161,6 +1173,9 @@
       <c r="U9" t="s">
         <v>85</v>
       </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1214,6 +1229,9 @@
       <c r="U10" t="s">
         <v>84</v>
       </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1267,6 +1285,9 @@
       <c r="U11" t="s">
         <v>84</v>
       </c>
+      <c r="V11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1320,6 +1341,9 @@
       <c r="U12" t="s">
         <v>85</v>
       </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1373,6 +1397,9 @@
       <c r="U13" t="s">
         <v>84</v>
       </c>
+      <c r="V13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1426,6 +1453,9 @@
       <c r="U14" t="s">
         <v>84</v>
       </c>
+      <c r="V14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1479,6 +1509,9 @@
       <c r="U15" t="s">
         <v>85</v>
       </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1532,8 +1565,11 @@
       <c r="U16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1585,8 +1621,11 @@
       <c r="U17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1638,8 +1677,11 @@
       <c r="U18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1691,8 +1733,11 @@
       <c r="U19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1744,8 +1789,11 @@
       <c r="U20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1797,8 +1845,11 @@
       <c r="U21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1850,8 +1901,11 @@
       <c r="U22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1903,8 +1957,11 @@
       <c r="U23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1956,8 +2013,11 @@
       <c r="U24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2009,8 +2069,11 @@
       <c r="U25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="U26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2115,8 +2181,11 @@
       <c r="U27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2168,8 +2237,11 @@
       <c r="U28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2221,8 +2293,11 @@
       <c r="U29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2274,8 +2349,11 @@
       <c r="U30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2327,8 +2405,11 @@
       <c r="U31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2380,8 +2461,11 @@
       <c r="U32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2433,8 +2517,11 @@
       <c r="U33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2486,8 +2573,11 @@
       <c r="U34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2539,8 +2629,11 @@
       <c r="U35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2590,6 +2683,9 @@
         <v>84</v>
       </c>
       <c r="U36" t="s">
+        <v>84</v>
+      </c>
+      <c r="V36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD85224-8B92-40E1-B9E6-636A63826BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FC24A-38C6-4BFA-843B-A3262594510D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,6 +952,9 @@
       <c r="V5" t="s">
         <v>84</v>
       </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1008,6 +1011,9 @@
       <c r="V6" t="s">
         <v>85</v>
       </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1064,6 +1070,9 @@
       <c r="V7" t="s">
         <v>84</v>
       </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1120,6 +1129,9 @@
       <c r="V8" t="s">
         <v>84</v>
       </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1176,6 +1188,9 @@
       <c r="V9" t="s">
         <v>85</v>
       </c>
+      <c r="W9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1232,6 +1247,9 @@
       <c r="V10" t="s">
         <v>84</v>
       </c>
+      <c r="W10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1288,6 +1306,9 @@
       <c r="V11" t="s">
         <v>84</v>
       </c>
+      <c r="W11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1344,6 +1365,9 @@
       <c r="V12" t="s">
         <v>85</v>
       </c>
+      <c r="W12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1400,6 +1424,9 @@
       <c r="V13" t="s">
         <v>84</v>
       </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1456,6 +1483,9 @@
       <c r="V14" t="s">
         <v>84</v>
       </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1512,6 +1542,9 @@
       <c r="V15" t="s">
         <v>85</v>
       </c>
+      <c r="W15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1568,8 +1601,11 @@
       <c r="V16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="V17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1680,8 +1719,11 @@
       <c r="V18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1736,8 +1778,11 @@
       <c r="V19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1792,8 +1837,11 @@
       <c r="V20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1848,8 +1896,11 @@
       <c r="V21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1904,8 +1955,11 @@
       <c r="V22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1960,8 +2014,11 @@
       <c r="V23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2016,8 +2073,11 @@
       <c r="V24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2072,8 +2132,11 @@
       <c r="V25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="V26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2184,8 +2250,11 @@
       <c r="V27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2240,8 +2309,11 @@
       <c r="V28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2296,8 +2368,11 @@
       <c r="V29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2352,8 +2427,11 @@
       <c r="V30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2408,8 +2486,11 @@
       <c r="V31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2464,8 +2545,11 @@
       <c r="V32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2520,8 +2604,11 @@
       <c r="V33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2576,8 +2663,11 @@
       <c r="V34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2632,8 +2722,11 @@
       <c r="V35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2686,6 +2779,9 @@
         <v>84</v>
       </c>
       <c r="V36" t="s">
+        <v>84</v>
+      </c>
+      <c r="W36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FC24A-38C6-4BFA-843B-A3262594510D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCFB34-50E2-41FE-BD14-1B2CF572BA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -763,11 +763,11 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="T27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,6 +955,9 @@
       <c r="W5" t="s">
         <v>84</v>
       </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1014,6 +1017,9 @@
       <c r="W6" t="s">
         <v>85</v>
       </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1073,6 +1079,9 @@
       <c r="W7" t="s">
         <v>84</v>
       </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1132,6 +1141,9 @@
       <c r="W8" t="s">
         <v>84</v>
       </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1191,6 +1203,9 @@
       <c r="W9" t="s">
         <v>85</v>
       </c>
+      <c r="X9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1250,6 +1265,9 @@
       <c r="W10" t="s">
         <v>84</v>
       </c>
+      <c r="X10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1309,6 +1327,9 @@
       <c r="W11" t="s">
         <v>84</v>
       </c>
+      <c r="X11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1368,6 +1389,9 @@
       <c r="W12" t="s">
         <v>85</v>
       </c>
+      <c r="X12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1427,6 +1451,9 @@
       <c r="W13" t="s">
         <v>84</v>
       </c>
+      <c r="X13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1486,6 +1513,9 @@
       <c r="W14" t="s">
         <v>84</v>
       </c>
+      <c r="X14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1545,6 +1575,9 @@
       <c r="W15" t="s">
         <v>85</v>
       </c>
+      <c r="X15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1604,8 +1637,11 @@
       <c r="W16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1663,8 +1699,11 @@
       <c r="W17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1722,8 +1761,11 @@
       <c r="W18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1776,13 +1818,16 @@
         <v>84</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="X19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1840,8 +1885,11 @@
       <c r="W20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1899,8 +1947,11 @@
       <c r="W21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1953,13 +2004,16 @@
         <v>84</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2006,10 +2060,10 @@
         <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
         <v>84</v>
@@ -2017,8 +2071,11 @@
       <c r="W23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2071,13 +2128,16 @@
         <v>84</v>
       </c>
       <c r="V24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="X24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2135,8 +2195,11 @@
       <c r="W25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="W26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2253,8 +2319,11 @@
       <c r="W27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2312,8 +2381,11 @@
       <c r="W28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2371,8 +2443,11 @@
       <c r="W29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2430,8 +2505,11 @@
       <c r="W30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2489,8 +2567,11 @@
       <c r="W31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2548,8 +2629,11 @@
       <c r="W32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2607,8 +2691,11 @@
       <c r="W33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2666,8 +2753,11 @@
       <c r="W34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2725,8 +2815,11 @@
       <c r="W35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2782,6 +2875,9 @@
         <v>84</v>
       </c>
       <c r="W36" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 51.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 51.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCFB34-50E2-41FE-BD14-1B2CF572BA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A46AEB-1CBC-4038-9126-9A511FA422C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="90">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -271,9 +279,6 @@
     <t>Semana 15</t>
   </si>
   <si>
-    <t>Semana 16</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -290,6 +295,9 @@
   </si>
   <si>
     <t>TUNUBALA DAGUA JESUS ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencias </t>
   </si>
 </sst>
 </file>
@@ -342,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -367,6 +375,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -760,14 +772,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="11" topLeftCell="T27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="11" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -775,7 +787,7 @@
     <col min="11" max="11" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -792,7 +804,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -809,7 +821,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -826,25 +838,25 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
@@ -890,14 +902,15 @@
       <c r="Y4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1"/>
+      <c r="AB4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -920,46 +933,53 @@
         <v>3743</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5">
+        <f>COUNTIF(L5:Z5,"V")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -982,46 +1002,53 @@
         <v>3743</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB36" si="0">COUNTIF(L6:Z6,"V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1044,46 +1071,53 @@
         <v>3743</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1106,46 +1140,53 @@
         <v>3743</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1168,46 +1209,53 @@
         <v>3743</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1230,46 +1278,53 @@
         <v>3743</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1292,46 +1347,53 @@
         <v>3743</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1354,46 +1416,53 @@
         <v>3743</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V12" t="s">
-        <v>85</v>
-      </c>
-      <c r="W12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1416,46 +1485,53 @@
         <v>3743</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1478,46 +1554,53 @@
         <v>3743</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1540,46 +1623,53 @@
         <v>3743</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
-      </c>
-      <c r="W15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1602,46 +1692,53 @@
         <v>3743</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1664,46 +1761,53 @@
         <v>3743</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1726,46 +1830,53 @@
         <v>3743</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1788,46 +1899,53 @@
         <v>3743</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1850,46 +1968,53 @@
         <v>3743</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1912,46 +2037,53 @@
         <v>3743</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
-      </c>
-      <c r="W21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1974,46 +2106,53 @@
         <v>3743</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2036,46 +2175,53 @@
         <v>3743</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V23" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2098,46 +2244,53 @@
         <v>3743</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
-      </c>
-      <c r="W24" t="s">
         <v>84</v>
       </c>
       <c r="X24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2160,46 +2313,53 @@
         <v>3743</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V25" t="s">
-        <v>85</v>
-      </c>
-      <c r="W25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2222,46 +2382,53 @@
         <v>3743</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
-        <v>85</v>
-      </c>
-      <c r="W26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2284,46 +2451,53 @@
         <v>3743</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
-      </c>
-      <c r="W27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2346,46 +2520,53 @@
         <v>3743</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
-      </c>
-      <c r="W28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2408,46 +2589,53 @@
         <v>3743</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V29" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2470,46 +2658,53 @@
         <v>3743</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
-      </c>
-      <c r="W30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2532,46 +2727,53 @@
         <v>3743</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V31" t="s">
-        <v>84</v>
-      </c>
-      <c r="W31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2594,46 +2796,53 @@
         <v>3743</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V32" t="s">
-        <v>85</v>
-      </c>
-      <c r="W32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2656,46 +2865,53 @@
         <v>3743</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2718,46 +2934,53 @@
         <v>3743</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
-      </c>
-      <c r="W34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2765,13 +2988,13 @@
         <v>202380642</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2780,46 +3003,53 @@
         <v>3743</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V35" t="s">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2827,13 +3057,13 @@
         <v>202379924</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2842,43 +3072,50 @@
         <v>3743</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V36" t="s">
-        <v>84</v>
-      </c>
-      <c r="W36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X36" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2891,5 +3128,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="AB5 AB6:AB36" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>